--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.121020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.121020.xlsx_with_dialog_acts.xlsx
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4969,12 +4969,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5095,12 +5095,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7153,12 +7153,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8287,12 +8287,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8413,12 +8413,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8623,12 +8623,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9589,12 +9589,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10853,12 +10853,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11063,12 +11063,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11399,12 +11399,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11483,12 +11483,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11735,12 +11735,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13377,12 +13377,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13839,12 +13839,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13923,12 +13923,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14133,12 +14133,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14385,12 +14385,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14553,12 +14553,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14763,12 +14763,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15435,12 +15435,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15645,12 +15645,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16427,12 +16427,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16907,12 +16907,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16987,12 +16987,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17427,12 +17427,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17467,12 +17467,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17507,12 +17507,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17547,12 +17547,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18467,12 +18467,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18787,12 +18787,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18907,12 +18907,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19147,12 +19147,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19227,12 +19227,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19747,12 +19747,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19867,12 +19867,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20107,12 +20107,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20187,12 +20187,12 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20227,12 +20227,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20747,12 +20747,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21145,12 +21145,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21185,12 +21185,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21225,12 +21225,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21465,12 +21465,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21505,12 +21505,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21545,12 +21545,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23185,12 +23185,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24025,12 +24025,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24145,12 +24145,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24265,12 +24265,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24745,12 +24745,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24985,12 +24985,12 @@
       <c r="H595" t="inlineStr"/>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25025,12 +25025,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25065,12 +25065,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25545,12 +25545,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25985,12 +25985,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26105,12 +26105,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26905,12 +26905,12 @@
       <c r="H643" t="inlineStr"/>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27105,12 +27105,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27505,12 +27505,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28185,12 +28185,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28985,12 +28985,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29305,12 +29305,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29385,12 +29385,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29425,12 +29425,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29985,12 +29985,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30265,12 +30265,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
